--- a/REGULAR/ONT/OSTONAL, IVY  SANGALANG.xlsx
+++ b/REGULAR/ONT/OSTONAL, IVY  SANGALANG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
   <si>
     <t>PERIOD</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>UT(0-0-40)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2770,7 +2776,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K274" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K275" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3148,12 +3154,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K274"/>
+  <dimension ref="A2:K275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4065" topLeftCell="A138" activePane="bottomLeft"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="K150" sqref="K150"/>
+      <pane ySplit="4065" topLeftCell="A142" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="K153" sqref="K153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,7 +3322,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36.119</v>
+        <v>38.869</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3326,7 +3332,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>65.625</v>
+        <v>68.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6388,13 +6394,15 @@
       <c r="B150" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C150" s="13"/>
+      <c r="C150" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D150" s="39"/>
       <c r="E150" s="9"/>
       <c r="F150" s="20"/>
-      <c r="G150" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G150" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H150" s="39"/>
       <c r="I150" s="9"/>
@@ -6404,15 +6412,19 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
+      <c r="A151" s="40">
+        <v>45200</v>
+      </c>
       <c r="B151" s="20"/>
-      <c r="C151" s="13"/>
+      <c r="C151" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D151" s="39"/>
       <c r="E151" s="9"/>
       <c r="F151" s="20"/>
-      <c r="G151" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G151" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H151" s="39"/>
       <c r="I151" s="9"/>
@@ -6420,26 +6432,42 @@
       <c r="K151" s="20"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="13"/>
+      <c r="A152" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C152" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D152" s="39"/>
       <c r="E152" s="9"/>
       <c r="F152" s="20"/>
-      <c r="G152" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H152" s="39"/>
+      <c r="G152" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H152" s="39">
+        <v>1</v>
+      </c>
       <c r="I152" s="9"/>
       <c r="J152" s="11"/>
-      <c r="K152" s="20"/>
+      <c r="K152" s="50">
+        <v>45233</v>
+      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
-      <c r="B153" s="20"/>
+      <c r="A153" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C153" s="13"/>
-      <c r="D153" s="39"/>
+      <c r="D153" s="39">
+        <v>1</v>
+      </c>
       <c r="E153" s="9"/>
       <c r="F153" s="20"/>
       <c r="G153" s="13" t="str">
@@ -6449,10 +6477,14 @@
       <c r="H153" s="39"/>
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
-      <c r="K153" s="20"/>
+      <c r="K153" s="50">
+        <v>45290</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
+      <c r="A154" s="47" t="s">
+        <v>109</v>
+      </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
       <c r="D154" s="39"/>
@@ -6468,7 +6500,9 @@
       <c r="K154" s="20"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
+      <c r="A155" s="40">
+        <v>45292</v>
+      </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
       <c r="D155" s="39"/>
@@ -6484,7 +6518,9 @@
       <c r="K155" s="20"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
+      <c r="A156" s="40">
+        <v>45323</v>
+      </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
       <c r="D156" s="39"/>
@@ -6500,7 +6536,9 @@
       <c r="K156" s="20"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="40"/>
+      <c r="A157" s="40">
+        <v>45352</v>
+      </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
       <c r="D157" s="39"/>
@@ -6516,7 +6554,9 @@
       <c r="K157" s="20"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
+      <c r="A158" s="40">
+        <v>45383</v>
+      </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
       <c r="D158" s="39"/>
@@ -6532,7 +6572,9 @@
       <c r="K158" s="20"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
+      <c r="A159" s="40">
+        <v>45413</v>
+      </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
       <c r="D159" s="39"/>
@@ -6548,7 +6590,9 @@
       <c r="K159" s="20"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
+      <c r="A160" s="40">
+        <v>45444</v>
+      </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
       <c r="D160" s="39"/>
@@ -6564,7 +6608,9 @@
       <c r="K160" s="20"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="40"/>
+      <c r="A161" s="40">
+        <v>45474</v>
+      </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
       <c r="D161" s="39"/>
@@ -6580,7 +6626,9 @@
       <c r="K161" s="20"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="40"/>
+      <c r="A162" s="40">
+        <v>45505</v>
+      </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
       <c r="D162" s="39"/>
@@ -6596,7 +6644,9 @@
       <c r="K162" s="20"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="40"/>
+      <c r="A163" s="40">
+        <v>45536</v>
+      </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
       <c r="D163" s="39"/>
@@ -6612,7 +6662,9 @@
       <c r="K163" s="20"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
+      <c r="A164" s="40">
+        <v>45566</v>
+      </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
       <c r="D164" s="39"/>
@@ -6628,7 +6680,9 @@
       <c r="K164" s="20"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="40"/>
+      <c r="A165" s="40">
+        <v>45597</v>
+      </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
       <c r="D165" s="39"/>
@@ -6644,7 +6698,9 @@
       <c r="K165" s="20"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="40"/>
+      <c r="A166" s="40">
+        <v>45627</v>
+      </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
       <c r="D166" s="39"/>
@@ -6660,7 +6716,9 @@
       <c r="K166" s="20"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="40"/>
+      <c r="A167" s="40">
+        <v>45658</v>
+      </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
       <c r="D167" s="39"/>
@@ -8372,20 +8430,36 @@
       <c r="K273" s="20"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="52"/>
-      <c r="B274" s="15"/>
-      <c r="C274" s="41"/>
-      <c r="D274" s="42"/>
+      <c r="A274" s="40"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="39"/>
       <c r="E274" s="9"/>
-      <c r="F274" s="15"/>
-      <c r="G274" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H274" s="42"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H274" s="39"/>
       <c r="I274" s="9"/>
-      <c r="J274" s="12"/>
-      <c r="K274" s="15"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="20"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" s="52"/>
+      <c r="B275" s="15"/>
+      <c r="C275" s="41"/>
+      <c r="D275" s="42"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="15"/>
+      <c r="G275" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H275" s="42"/>
+      <c r="I275" s="9"/>
+      <c r="J275" s="12"/>
+      <c r="K275" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
